--- a/project/Top 10 risks.xlsx
+++ b/project/Top 10 risks.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,13 +11,67 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+  <si>
+    <t>This week</t>
+  </si>
+  <si>
+    <t>Last week</t>
+  </si>
+  <si>
+    <t>Weeks on list</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Risk resolution progress</t>
+  </si>
+  <si>
+    <t>Creeping requirements</t>
+  </si>
+  <si>
+    <t>Requirements gold-plating</t>
+  </si>
+  <si>
+    <t>Released software has low quality</t>
+  </si>
+  <si>
+    <t>Developer can't provide enough time for project</t>
+  </si>
+  <si>
+    <t>Unfamiliarity with technologies</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Going to reserve Monday / Thursday eveings to work on Apollo.
+Will also plan in Saturday and Sunday evenings when available.</t>
+  </si>
+  <si>
+    <t>Writing a features document which is used as a check for all new requirements. 
+All new features / requirements are put on a list. Items on the list are included or
+discarded depending on the time available for the product delivery</t>
+  </si>
+  <si>
+    <t>Incorrect features / requirements</t>
+  </si>
+  <si>
+    <t>Will post a message on the Rhino forums asking for suggestions.
+Will also use WIP and beta releases in the early stages to get fast feedback.</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +79,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +110,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,13 +440,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="90">
+      <c r="A3" s="3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="60">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="60">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
